--- a/outputs-HGR-r202-archive/g__Agathobaculum.xlsx
+++ b/outputs-HGR-r202-archive/g__Agathobaculum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,80 +576,39 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3315.fa</t>
+          <t>even_MAG-GUT81714.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007605559162322221</v>
+        <v>0.638197623694887</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006416340604282859</v>
+        <v>0.03776221813686578</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0005007459631933442</v>
+        <v>0.001305826889599017</v>
       </c>
       <c r="E4" t="n">
-        <v>0.974893066520621</v>
+        <v>0.008040952217973926</v>
       </c>
       <c r="F4" t="n">
-        <v>3.580250608538471e-08</v>
+        <v>0.003110745400189174</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007323611145292667</v>
+        <v>0.1000081523671545</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003260640801781838</v>
+        <v>0.2115744812933307</v>
       </c>
       <c r="I4" t="n">
-        <v>0.974893066520621</v>
+        <v>0.638197623694887</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>s__Agathobaculum sp900291975</t>
+          <t>s__Agathobaculum butyriciproducens</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
-        <is>
-          <t>s__Agathobaculum sp900291975</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81714.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.638197623694887</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.03776221813686578</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.001305826889599017</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.008040952217973926</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.003110745400189174</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1000081523671545</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.2115744812933307</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.638197623694887</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>s__Agathobaculum butyriciproducens</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>s__Agathobaculum butyriciproducens</t>
         </is>
